--- a/biology/Zoologie/Hoplocercidae/Hoplocercidae.xlsx
+++ b/biology/Zoologie/Hoplocercidae/Hoplocercidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hoplocercidae sont une famille de sauriens. Elle a été créée par Darrel Richmond Frost et Richard Emmett Etheridge en 1989.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de cette famille se rencontrent en Amérique du Sud et en Amérique centrale
 </t>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces sauriens sont principalement terrestres voire fouisseurs, diurnes et insectivores. Ils atteignent une quinzaine de centimètres sans la queue selon les espèces, et présentent en général un aspect trapu, avec des écailles très visibles voire proéminentes.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (28 novembre 2012)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (28 novembre 2012) :
 Enyalioides Boulenger, 1885
 Hoplocercus Fitzinger, 1843
 Morunasaurus Dunn, 1933
@@ -609,7 +627,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille est parfois considérée comme la sous-famille des Hoplocercinae dans la famille des Iguanidae.
 </t>
@@ -640,7 +660,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Frost &amp; Etheridge, 1989 : A Phylogenetic Analysis and Taxonomy of Iguanian Lizards (Reptilia: Squamata). University of Kansas Natural History Museum, Miscellaneous Publication, n. 81, p. 1-65 (texte intégral).</t>
         </is>
